--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H2">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I2">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J2">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N2">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O2">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P2">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q2">
-        <v>2.005089730702778</v>
+        <v>1.51186218176</v>
       </c>
       <c r="R2">
-        <v>18.045807576325</v>
+        <v>13.60675963584</v>
       </c>
       <c r="S2">
-        <v>0.02278036382256654</v>
+        <v>0.01723105759316415</v>
       </c>
       <c r="T2">
-        <v>0.02845877131986692</v>
+        <v>0.02176028280435072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H3">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I3">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J3">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.809982</v>
       </c>
       <c r="O3">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P3">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q3">
-        <v>4.340913309523334</v>
+        <v>3.65333969357</v>
       </c>
       <c r="R3">
-        <v>39.06821978571</v>
+        <v>32.88005724213</v>
       </c>
       <c r="S3">
-        <v>0.04931828386478402</v>
+        <v>0.04163799281890525</v>
       </c>
       <c r="T3">
-        <v>0.06161173602529591</v>
+        <v>0.05258264005248001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H4">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I4">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J4">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N4">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O4">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P4">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q4">
-        <v>2.140838926548334</v>
+        <v>2.041026498735</v>
       </c>
       <c r="R4">
-        <v>19.267550338935</v>
+        <v>18.369238488615</v>
       </c>
       <c r="S4">
-        <v>0.02432264695465296</v>
+        <v>0.02326207082442905</v>
       </c>
       <c r="T4">
-        <v>0.03038549572639531</v>
+        <v>0.02937656246678822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H5">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I5">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J5">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N5">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O5">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P5">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q5">
-        <v>2.397069183015833</v>
+        <v>3.1843566624625</v>
       </c>
       <c r="R5">
-        <v>14.382415098095</v>
+        <v>19.106139974775</v>
       </c>
       <c r="S5">
-        <v>0.02723374782724748</v>
+        <v>0.03629288020432644</v>
       </c>
       <c r="T5">
-        <v>0.0226814932262201</v>
+        <v>0.030555034429764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H6">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I6">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J6">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N6">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O6">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P6">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q6">
-        <v>2.017559212437222</v>
+        <v>1.667417076161667</v>
       </c>
       <c r="R6">
-        <v>18.158032911935</v>
+        <v>15.006753685455</v>
       </c>
       <c r="S6">
-        <v>0.02292203295898465</v>
+        <v>0.01900395420812767</v>
       </c>
       <c r="T6">
-        <v>0.02863575398738746</v>
+        <v>0.023999189587402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J7">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N7">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O7">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P7">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q7">
-        <v>4.953319807471112</v>
+        <v>4.437780494677334</v>
       </c>
       <c r="R7">
-        <v>44.57987826724001</v>
+        <v>39.940024452096</v>
       </c>
       <c r="S7">
-        <v>0.0562759988323154</v>
+        <v>0.05057845365282404</v>
       </c>
       <c r="T7">
-        <v>0.07030378417308021</v>
+        <v>0.06387312266478781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J8">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.809982</v>
       </c>
       <c r="O8">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P8">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q8">
         <v>10.72367562874133</v>
@@ -948,10 +948,10 @@
         <v>96.513080658672</v>
       </c>
       <c r="S8">
-        <v>0.1218345636094275</v>
+        <v>0.1222203151838515</v>
       </c>
       <c r="T8">
-        <v>0.1522039775844915</v>
+        <v>0.154346220970939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J9">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N9">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O9">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P9">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q9">
-        <v>5.288670974221334</v>
+        <v>5.991040515783999</v>
       </c>
       <c r="R9">
-        <v>47.598038767992</v>
+        <v>53.919364642056</v>
       </c>
       <c r="S9">
-        <v>0.06008601365106103</v>
+        <v>0.0682813323965011</v>
       </c>
       <c r="T9">
-        <v>0.0750635123888594</v>
+        <v>0.0862292459515189</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J10">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N10">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O10">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P10">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q10">
-        <v>5.921655316617333</v>
+        <v>9.347066191126666</v>
       </c>
       <c r="R10">
-        <v>35.529931899704</v>
+        <v>56.08239714675999</v>
       </c>
       <c r="S10">
-        <v>0.06727751904504399</v>
+        <v>0.106530765707048</v>
       </c>
       <c r="T10">
-        <v>0.05603175156708822</v>
+        <v>0.08968842361593396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J11">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N11">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O11">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P11">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q11">
-        <v>4.984124080176889</v>
+        <v>4.894381952505777</v>
       </c>
       <c r="R11">
-        <v>44.857116721592</v>
+        <v>44.049437572552</v>
       </c>
       <c r="S11">
-        <v>0.05662597446122714</v>
+        <v>0.05578245049320111</v>
       </c>
       <c r="T11">
-        <v>0.07074099740059062</v>
+        <v>0.07044500267547718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H12">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I12">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J12">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N12">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O12">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P12">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q12">
-        <v>0.3562139163094445</v>
+        <v>0.447445561088</v>
       </c>
       <c r="R12">
-        <v>3.205925246785001</v>
+        <v>4.027010049792001</v>
       </c>
       <c r="S12">
-        <v>0.004047042128805998</v>
+        <v>0.005099644878964826</v>
       </c>
       <c r="T12">
-        <v>0.005055838763710373</v>
+        <v>0.006440098883544855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H13">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I13">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J13">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.809982</v>
       </c>
       <c r="O13">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P13">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q13">
-        <v>0.7711843049553334</v>
+        <v>1.081229922116</v>
       </c>
       <c r="R13">
-        <v>6.940658744598001</v>
+        <v>9.731069299044</v>
       </c>
       <c r="S13">
-        <v>0.008761632345988883</v>
+        <v>0.0123230379621935</v>
       </c>
       <c r="T13">
-        <v>0.01094562375146274</v>
+        <v>0.01556217832923159</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H14">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I14">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J14">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N14">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O14">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P14">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q14">
-        <v>0.3803304194003334</v>
+        <v>0.6040552227179999</v>
       </c>
       <c r="R14">
-        <v>3.422973774603001</v>
+        <v>5.436497004462</v>
       </c>
       <c r="S14">
-        <v>0.004321036208036528</v>
+        <v>0.006884562930192895</v>
       </c>
       <c r="T14">
-        <v>0.005398130700070704</v>
+        <v>0.008694186966491197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H15">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I15">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J15">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N15">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O15">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P15">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q15">
-        <v>0.4258509673018334</v>
+        <v>0.9424313080449999</v>
       </c>
       <c r="R15">
-        <v>2.555105803811</v>
+        <v>5.654587848269999</v>
       </c>
       <c r="S15">
-        <v>0.004838207398293075</v>
+        <v>0.01074111671185534</v>
       </c>
       <c r="T15">
-        <v>0.004029477287795082</v>
+        <v>0.009042963498546734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H16">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I16">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J16">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N16">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O16">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P16">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q16">
-        <v>0.3584291802225556</v>
+        <v>0.4934830556726666</v>
       </c>
       <c r="R16">
-        <v>3.225862622003</v>
+        <v>4.441347501054</v>
       </c>
       <c r="S16">
-        <v>0.004072210338054162</v>
+        <v>0.005624345298225197</v>
       </c>
       <c r="T16">
-        <v>0.005087280593046502</v>
+        <v>0.00710271807850342</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H17">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I17">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J17">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N17">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O17">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P17">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q17">
-        <v>6.0196064019825</v>
+        <v>4.346775329024</v>
       </c>
       <c r="R17">
-        <v>36.117638411895</v>
+        <v>26.080651974144</v>
       </c>
       <c r="S17">
-        <v>0.06839036767583904</v>
+        <v>0.04954124585070643</v>
       </c>
       <c r="T17">
-        <v>0.056958582087856</v>
+        <v>0.04170885485361085</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H18">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I18">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J18">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.809982</v>
       </c>
       <c r="O18">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P18">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q18">
-        <v>13.032129758751</v>
+        <v>10.503766176668</v>
       </c>
       <c r="R18">
-        <v>78.192778552506</v>
+        <v>63.022597060008</v>
       </c>
       <c r="S18">
-        <v>0.14806153198101</v>
+        <v>0.1197139541678325</v>
       </c>
       <c r="T18">
-        <v>0.1233123202870777</v>
+        <v>0.1007873712620157</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H19">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I19">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J19">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N19">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O19">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P19">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q19">
-        <v>6.427147628623501</v>
+        <v>5.868182786514</v>
       </c>
       <c r="R19">
-        <v>38.562885771741</v>
+        <v>35.209096719084</v>
       </c>
       <c r="S19">
-        <v>0.0730205531849549</v>
+        <v>0.06688109325145394</v>
       </c>
       <c r="T19">
-        <v>0.06081480936613318</v>
+        <v>0.0563073003711296</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H20">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I20">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J20">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N20">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O20">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P20">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q20">
-        <v>7.196392649729249</v>
+        <v>9.155386745034999</v>
       </c>
       <c r="R20">
-        <v>28.785570598917</v>
+        <v>36.62154698014</v>
       </c>
       <c r="S20">
-        <v>0.08176015280543913</v>
+        <v>0.1043461488716785</v>
       </c>
       <c r="T20">
-        <v>0.04539569467986606</v>
+        <v>0.05856612745048075</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H21">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I21">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J21">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N21">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O21">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P21">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q21">
-        <v>6.057041819923501</v>
+        <v>4.794013301804666</v>
       </c>
       <c r="R21">
-        <v>36.342250919541</v>
+        <v>28.764079810828</v>
       </c>
       <c r="S21">
-        <v>0.06881568152962199</v>
+        <v>0.05463852479571081</v>
       </c>
       <c r="T21">
-        <v>0.05731280264371882</v>
+        <v>0.04600026222568691</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H22">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I22">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J22">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.048521666666667</v>
+        <v>0.9393920000000001</v>
       </c>
       <c r="N22">
-        <v>3.145565</v>
+        <v>2.818176</v>
       </c>
       <c r="O22">
-        <v>0.1554155979440307</v>
+        <v>0.1253824777629622</v>
       </c>
       <c r="P22">
-        <v>0.1656763860066786</v>
+        <v>0.1374851382139396</v>
       </c>
       <c r="Q22">
-        <v>0.3451925555638889</v>
+        <v>0.25726189312</v>
       </c>
       <c r="R22">
-        <v>3.106733000075001</v>
+        <v>2.31535703808</v>
       </c>
       <c r="S22">
-        <v>0.003921825484503745</v>
+        <v>0.002932075787302719</v>
       </c>
       <c r="T22">
-        <v>0.004899409662165082</v>
+        <v>0.003702779007645365</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H23">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I23">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J23">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.809982</v>
       </c>
       <c r="O23">
-        <v>0.3364665567292637</v>
+        <v>0.302980515298254</v>
       </c>
       <c r="P23">
-        <v>0.3586806206613224</v>
+        <v>0.3322259917423329</v>
       </c>
       <c r="Q23">
-        <v>0.7473236413566667</v>
+        <v>0.62166055684</v>
       </c>
       <c r="R23">
-        <v>6.72591277221</v>
+        <v>5.594945011559999</v>
       </c>
       <c r="S23">
-        <v>0.008490544928053236</v>
+        <v>0.007085215165471333</v>
       </c>
       <c r="T23">
-        <v>0.01060696301299457</v>
+        <v>0.008947581127666544</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H24">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I24">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J24">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.119509</v>
+        <v>1.268187</v>
       </c>
       <c r="N24">
-        <v>3.358527</v>
+        <v>3.804561</v>
       </c>
       <c r="O24">
-        <v>0.165937592107037</v>
+        <v>0.1692673860611733</v>
       </c>
       <c r="P24">
-        <v>0.1768930591692914</v>
+        <v>0.1856060781613229</v>
       </c>
       <c r="Q24">
-        <v>0.3685628871316667</v>
+        <v>0.34730569182</v>
       </c>
       <c r="R24">
-        <v>3.317065984185</v>
+        <v>3.12575122638</v>
       </c>
       <c r="S24">
-        <v>0.004187342108331542</v>
+        <v>0.003958326658596276</v>
       </c>
       <c r="T24">
-        <v>0.005231110987832807</v>
+        <v>0.004998782405394927</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H25">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I25">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J25">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.2534995</v>
+        <v>1.9785925</v>
       </c>
       <c r="N25">
-        <v>2.506999</v>
+        <v>3.957185</v>
       </c>
       <c r="O25">
-        <v>0.185798138949642</v>
+        <v>0.2640865901915427</v>
       </c>
       <c r="P25">
-        <v>0.1320432208656814</v>
+        <v>0.1930518628585044</v>
       </c>
       <c r="Q25">
-        <v>0.4126750162241667</v>
+        <v>0.54185734205</v>
       </c>
       <c r="R25">
-        <v>2.476050097345</v>
+        <v>3.2511440523</v>
       </c>
       <c r="S25">
-        <v>0.004688511873618286</v>
+        <v>0.00617567869663437</v>
       </c>
       <c r="T25">
-        <v>0.003904804104711934</v>
+        <v>0.005199313863778955</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H26">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I26">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J26">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.055042333333333</v>
+        <v>1.036045666666667</v>
       </c>
       <c r="N26">
-        <v>3.165127</v>
+        <v>3.108137</v>
       </c>
       <c r="O26">
-        <v>0.1563821142700266</v>
+        <v>0.1382830306860678</v>
       </c>
       <c r="P26">
-        <v>0.1667067132970263</v>
+        <v>0.1516309290239004</v>
       </c>
       <c r="Q26">
-        <v>0.3473392785761111</v>
+        <v>0.2837314662733333</v>
       </c>
       <c r="R26">
-        <v>3.126053507185</v>
+        <v>2.55358319646</v>
       </c>
       <c r="S26">
-        <v>0.003946214982138625</v>
+        <v>0.003233755890803026</v>
       </c>
       <c r="T26">
-        <v>0.004929878672282906</v>
+        <v>0.004083756456830887</v>
       </c>
     </row>
   </sheetData>
